--- a/src/main/webapp/resources/excel/Template_Reg_CSHT.xlsx
+++ b/src/main/webapp/resources/excel/Template_Reg_CSHT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Media_Soft\GIT\RIMS\src\main\webapp\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\RIMS\source\RIMS\src\main\webapp\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F4B410AA-6753-4BCC-855C-BAB9A76D2288}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{54A9ECF8-996E-4840-8003-3CC29AF3E09F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="80">
   <si>
     <t>Thông tin hạ tầng</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>Mã quy hoạch vị trí</t>
+  </si>
+  <si>
+    <t>CSHT_QH_HNI_KNH1</t>
   </si>
 </sst>
 </file>
@@ -461,27 +467,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad 2 3 2 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -505,7 +511,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -545,7 +551,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -585,7 +591,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -625,7 +631,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -665,7 +671,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -705,7 +711,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -745,7 +751,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -785,7 +791,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -825,7 +831,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -865,7 +871,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -905,7 +911,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -945,7 +951,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -985,7 +991,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1025,7 +1031,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1065,7 +1071,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1105,7 +1111,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1145,7 +1151,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1185,7 +1191,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1225,7 +1231,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1265,7 +1271,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1305,7 +1311,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1345,7 +1351,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1385,7 +1391,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1425,7 +1431,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1465,7 +1471,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1505,7 +1511,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1545,7 +1551,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1585,7 +1591,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1625,7 +1631,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1665,7 +1671,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1705,7 +1711,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1745,7 +1751,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1785,7 +1791,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1825,7 +1831,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1865,7 +1871,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1905,7 +1911,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1945,7 +1951,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1985,7 +1991,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2025,7 +2031,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2065,7 +2071,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2105,7 +2111,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2145,7 +2151,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2185,7 +2191,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2225,7 +2231,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2265,7 +2271,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2305,7 +2311,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2345,7 +2351,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2385,7 +2391,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2425,7 +2431,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2465,7 +2471,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2505,7 +2511,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2545,7 +2551,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2585,7 +2591,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2625,7 +2631,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2995,464 +3001,469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX8"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="9" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="57" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
-    <col min="21" max="21" width="16.28515625" style="9" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="9" customWidth="1"/>
-    <col min="27" max="27" width="17" customWidth="1"/>
-    <col min="31" max="31" width="15.42578125" style="9" customWidth="1"/>
-    <col min="37" max="37" width="13.28515625" style="9" customWidth="1"/>
-    <col min="38" max="38" width="11.5703125" customWidth="1"/>
-    <col min="44" max="44" width="12" style="9" customWidth="1"/>
-    <col min="45" max="45" width="12" customWidth="1"/>
-    <col min="50" max="50" width="9" customWidth="1"/>
-    <col min="51" max="51" width="11.28515625" customWidth="1"/>
+    <col min="1" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="9" customWidth="1"/>
+    <col min="4" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="57" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" style="9" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" style="9" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" style="9" customWidth="1"/>
+    <col min="28" max="28" width="17" customWidth="1"/>
+    <col min="32" max="32" width="15.42578125" style="9" customWidth="1"/>
+    <col min="38" max="38" width="13.28515625" style="9" customWidth="1"/>
+    <col min="39" max="39" width="11.5703125" customWidth="1"/>
+    <col min="45" max="45" width="12" style="9" customWidth="1"/>
+    <col min="46" max="46" width="12" customWidth="1"/>
+    <col min="51" max="51" width="9" customWidth="1"/>
+    <col min="52" max="52" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
+    <row r="1" spans="1:51" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
     </row>
-    <row r="2" spans="1:50" ht="15" customHeight="1">
+    <row r="2" spans="1:51" ht="15" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="R2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="S2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="V2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="W2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="X2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="Y2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Z2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="AA2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AB2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AC2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AD2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AE2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="AF2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AG2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="14" t="s">
+      <c r="AH2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AH2" s="14" t="s">
+      <c r="AI2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AI2" s="14" t="s">
+      <c r="AJ2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AJ2" s="14" t="s">
+      <c r="AK2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AK2" s="14" t="s">
+      <c r="AL2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AL2" s="14" t="s">
+      <c r="AM2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AM2" s="14" t="s">
+      <c r="AN2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AN2" s="14" t="s">
+      <c r="AO2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AO2" s="14" t="s">
+      <c r="AP2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AP2" s="14" t="s">
+      <c r="AQ2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AQ2" s="14" t="s">
+      <c r="AR2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AR2" s="14" t="s">
+      <c r="AS2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AS2" s="12" t="s">
+      <c r="AT2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AT2" s="12" t="s">
+      <c r="AU2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AU2" s="12" t="s">
+      <c r="AV2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AV2" s="12" t="s">
+      <c r="AW2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AW2" s="12" t="s">
+      <c r="AX2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AX2" s="12" t="s">
+      <c r="AY2" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="90">
-      <c r="A3" s="15"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="21"/>
+    <row r="3" spans="1:51" ht="90">
+      <c r="A3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="10" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="V3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="10" t="s">
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AK3" s="10" t="s">
+      <c r="AL3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AR3" s="10" t="s">
+      <c r="AS3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="13"/>
     </row>
-    <row r="4" spans="1:50" ht="30">
+    <row r="4" spans="1:51" ht="30">
       <c r="A4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>2</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>42</v>
       </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R4" s="3">
+      <c r="S4" s="3">
         <v>150</v>
       </c>
-      <c r="S4" s="3">
+      <c r="T4" s="3">
         <v>3</v>
       </c>
-      <c r="T4" s="3">
+      <c r="U4" s="3">
         <v>15</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W4" s="3">
-        <v>0</v>
-      </c>
       <c r="X4" s="3">
         <v>0</v>
       </c>
       <c r="Y4" s="3">
         <v>0</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AF4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AG4" s="3">
+      <c r="AH4" s="3">
         <v>300</v>
       </c>
-      <c r="AH4" s="3">
+      <c r="AI4" s="3">
         <v>2</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AJ4" s="3">
         <v>24</v>
       </c>
-      <c r="AJ4" s="3">
+      <c r="AK4" s="3">
         <v>4</v>
       </c>
-      <c r="AK4" s="5" t="s">
+      <c r="AL4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AL4" s="5" t="s">
+      <c r="AM4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AN4" s="3">
-        <v>0</v>
-      </c>
       <c r="AO4" s="3">
         <v>0</v>
       </c>
@@ -3462,149 +3473,150 @@
       <c r="AQ4" s="3">
         <v>0</v>
       </c>
-      <c r="AR4" s="5" t="s">
+      <c r="AR4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AT4" s="4" t="s">
+      <c r="AU4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AU4" s="3">
+      <c r="AV4" s="3">
         <v>100</v>
       </c>
-      <c r="AV4" s="3">
+      <c r="AW4" s="3">
         <v>3</v>
       </c>
-      <c r="AW4" s="3">
+      <c r="AX4" s="3">
         <v>2</v>
       </c>
-      <c r="AX4" s="3">
+      <c r="AY4" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:51">
       <c r="A5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>2</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>42</v>
       </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="Q5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R5" s="3">
+      <c r="S5" s="3">
         <v>150</v>
       </c>
-      <c r="S5" s="3">
+      <c r="T5" s="3">
         <v>3</v>
       </c>
-      <c r="T5" s="3">
+      <c r="U5" s="3">
         <v>15</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="V5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W5" s="3">
-        <v>0</v>
-      </c>
       <c r="X5" s="3">
         <v>0</v>
       </c>
       <c r="Y5" s="3">
         <v>0</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AB5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AC5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AF5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AG5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="3">
+      <c r="AH5" s="3">
         <v>300</v>
       </c>
-      <c r="AH5" s="3">
+      <c r="AI5" s="3">
         <v>2</v>
       </c>
-      <c r="AI5" s="3">
+      <c r="AJ5" s="3">
         <v>24</v>
       </c>
-      <c r="AJ5" s="3">
+      <c r="AK5" s="3">
         <v>4</v>
       </c>
-      <c r="AK5" s="5" t="s">
+      <c r="AL5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AL5" s="5" t="s">
+      <c r="AM5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AM5" s="3" t="s">
+      <c r="AN5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AN5" s="3">
-        <v>0</v>
-      </c>
       <c r="AO5" s="3">
         <v>0</v>
       </c>
@@ -3614,149 +3626,150 @@
       <c r="AQ5" s="3">
         <v>0</v>
       </c>
-      <c r="AR5" s="5" t="s">
+      <c r="AR5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AS5" s="3" t="s">
+      <c r="AT5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AT5" s="4" t="s">
+      <c r="AU5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AU5" s="3">
+      <c r="AV5" s="3">
         <v>100</v>
       </c>
-      <c r="AV5" s="3">
+      <c r="AW5" s="3">
         <v>3</v>
       </c>
-      <c r="AW5" s="3">
+      <c r="AX5" s="3">
         <v>2</v>
       </c>
-      <c r="AX5" s="3">
+      <c r="AY5" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:51">
       <c r="A6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>2</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>42</v>
       </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="Q6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6" s="3">
         <v>150</v>
       </c>
-      <c r="S6" s="3">
+      <c r="T6" s="3">
         <v>3</v>
       </c>
-      <c r="T6" s="3">
+      <c r="U6" s="3">
         <v>15</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="V6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
       <c r="X6" s="3">
         <v>0</v>
       </c>
       <c r="Y6" s="3">
         <v>0</v>
       </c>
-      <c r="Z6" s="5" t="s">
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AB6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AC6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AC6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AE6" s="5" t="s">
+      <c r="AF6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AG6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AH6" s="3">
         <v>300</v>
       </c>
-      <c r="AH6" s="3">
+      <c r="AI6" s="3">
         <v>2</v>
       </c>
-      <c r="AI6" s="3">
+      <c r="AJ6" s="3">
         <v>24</v>
       </c>
-      <c r="AJ6" s="3">
+      <c r="AK6" s="3">
         <v>4</v>
       </c>
-      <c r="AK6" s="5" t="s">
+      <c r="AL6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AL6" s="5" t="s">
+      <c r="AM6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AM6" s="3" t="s">
+      <c r="AN6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AN6" s="3">
-        <v>0</v>
-      </c>
       <c r="AO6" s="3">
         <v>0</v>
       </c>
@@ -3766,149 +3779,150 @@
       <c r="AQ6" s="3">
         <v>0</v>
       </c>
-      <c r="AR6" s="5" t="s">
+      <c r="AR6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AS6" s="3" t="s">
+      <c r="AT6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AT6" s="4" t="s">
+      <c r="AU6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AU6" s="3">
+      <c r="AV6" s="3">
         <v>100</v>
       </c>
-      <c r="AV6" s="3">
+      <c r="AW6" s="3">
         <v>3</v>
       </c>
-      <c r="AW6" s="3">
+      <c r="AX6" s="3">
         <v>2</v>
       </c>
-      <c r="AX6" s="3">
+      <c r="AY6" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:51">
       <c r="A7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>2</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>42</v>
       </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="Q7" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R7" s="3">
+      <c r="S7" s="3">
         <v>150</v>
       </c>
-      <c r="S7" s="3">
+      <c r="T7" s="3">
         <v>3</v>
       </c>
-      <c r="T7" s="3">
+      <c r="U7" s="3">
         <v>15</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="V7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="3">
-        <v>0</v>
-      </c>
       <c r="X7" s="3">
         <v>0</v>
       </c>
       <c r="Y7" s="3">
         <v>0</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AA7" s="4" t="s">
+      <c r="AB7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AC7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="4" t="s">
+      <c r="AD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AE7" s="5" t="s">
+      <c r="AF7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AG7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AG7" s="3">
+      <c r="AH7" s="3">
         <v>300</v>
       </c>
-      <c r="AH7" s="3">
+      <c r="AI7" s="3">
         <v>2</v>
       </c>
-      <c r="AI7" s="3">
+      <c r="AJ7" s="3">
         <v>24</v>
       </c>
-      <c r="AJ7" s="3">
+      <c r="AK7" s="3">
         <v>4</v>
       </c>
-      <c r="AK7" s="5" t="s">
+      <c r="AL7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AL7" s="5" t="s">
+      <c r="AM7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AM7" s="3" t="s">
+      <c r="AN7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AN7" s="3">
-        <v>0</v>
-      </c>
       <c r="AO7" s="3">
         <v>0</v>
       </c>
@@ -3918,149 +3932,150 @@
       <c r="AQ7" s="3">
         <v>0</v>
       </c>
-      <c r="AR7" s="5" t="s">
+      <c r="AR7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AS7" s="3" t="s">
+      <c r="AT7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AT7" s="4" t="s">
+      <c r="AU7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AU7" s="3">
+      <c r="AV7" s="3">
         <v>100</v>
       </c>
-      <c r="AV7" s="3">
+      <c r="AW7" s="3">
         <v>3</v>
       </c>
-      <c r="AW7" s="3">
+      <c r="AX7" s="3">
         <v>2</v>
       </c>
-      <c r="AX7" s="3">
+      <c r="AY7" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:51">
       <c r="A8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>42</v>
       </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="Q8" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>150</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>15</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="V8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
       <c r="X8" s="3">
         <v>0</v>
       </c>
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-      <c r="Z8" s="5" t="s">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AB8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AC8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AE8" s="5" t="s">
+      <c r="AF8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AF8" s="3" t="s">
+      <c r="AG8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AH8" s="3">
         <v>300</v>
       </c>
-      <c r="AH8" s="3">
+      <c r="AI8" s="3">
         <v>2</v>
       </c>
-      <c r="AI8" s="3">
+      <c r="AJ8" s="3">
         <v>24</v>
       </c>
-      <c r="AJ8" s="3">
+      <c r="AK8" s="3">
         <v>4</v>
       </c>
-      <c r="AK8" s="5" t="s">
+      <c r="AL8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AL8" s="5" t="s">
+      <c r="AM8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AM8" s="3" t="s">
+      <c r="AN8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AN8" s="3">
-        <v>0</v>
-      </c>
       <c r="AO8" s="3">
         <v>0</v>
       </c>
@@ -4070,54 +4085,42 @@
       <c r="AQ8" s="3">
         <v>0</v>
       </c>
-      <c r="AR8" s="5" t="s">
+      <c r="AR8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AS8" s="3" t="s">
+      <c r="AT8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AT8" s="4" t="s">
+      <c r="AU8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AU8" s="3">
+      <c r="AV8" s="3">
         <v>100</v>
       </c>
-      <c r="AV8" s="3">
+      <c r="AW8" s="3">
         <v>3</v>
       </c>
-      <c r="AW8" s="3">
+      <c r="AX8" s="3">
         <v>2</v>
       </c>
-      <c r="AX8" s="3">
+      <c r="AY8" s="3">
         <v>22000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
+  <mergeCells count="32">
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="A1:AY1"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AF2:AL2"/>
+    <mergeCell ref="AM2:AS2"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A1:AX1"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="AE2:AK2"/>
-    <mergeCell ref="AL2:AR2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
@@ -4125,6 +4128,22 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
